--- a/biology/Botanique/Square_Ernest-Goüin/Square_Ernest-Goüin.xlsx
+++ b/biology/Botanique/Square_Ernest-Goüin/Square_Ernest-Goüin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Ernest-Go%C3%BCin</t>
+          <t>Square_Ernest-Goüin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Ernest-Goüin, anciennement Boulay-Level, est un square du 17e arrondissement de Paris dans le quartier des Épinettes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Ernest-Go%C3%BCin</t>
+          <t>Square_Ernest-Goüin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est bordé par la rue Ernest-Goüin, la rue Émile-Level et la rue Boulay.
 Le site est accessible par la rue Boulay.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Ernest-Go%C3%BCin</t>
+          <t>Square_Ernest-Goüin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square rend hommage à l'ingénieur et industriel Ernest Goüin (1815-1885), dont les usines étaient situées à l'emplacement du square.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Ernest-Go%C3%BCin</t>
+          <t>Square_Ernest-Goüin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé à l'emplacement des anciennes usines des établissements Ernest Goüin et Cie, fondées en 1846 par l'ingénieur Ernest Goüin (1815-1885) dont il porte le nom.
 </t>
